--- a/Source Files/countries_GDP.xlsx
+++ b/Source Files/countries_GDP.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7BA12B-7A84-463D-8A39-EB09A74AB02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339F8F0-200D-4F39-952E-74B873C5931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">countries!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Rank</t>
   </si>
@@ -28,9 +31,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Continent</t>
-  </si>
-  <si>
     <t>IMF_GDP</t>
   </si>
   <si>
@@ -40,24 +40,15 @@
     <t>United States</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
-    <t>Asia</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -76,18 +67,12 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>South Korea</t>
   </si>
   <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
   </si>
   <si>
     <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Africa</t>
   </si>
   <si>
     <t>Argentina</t>
@@ -1530,3638 +1512,2998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>26695150000000</v>
       </c>
       <c r="D2" s="1">
-        <v>26695150000000</v>
-      </c>
-      <c r="E2" s="1">
         <v>18624475000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21865482000000</v>
       </c>
       <c r="D3" s="1">
-        <v>21865482000000</v>
-      </c>
-      <c r="E3" s="1">
         <v>11218281029298</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5291351000000</v>
       </c>
       <c r="D4" s="1">
-        <v>5291351000000</v>
-      </c>
-      <c r="E4" s="1">
         <v>4936211827875</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4564778000000</v>
       </c>
       <c r="D5" s="1">
-        <v>4564778000000</v>
-      </c>
-      <c r="E5" s="1">
         <v>3477796274497</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="1">
+        <v>3893670000000</v>
+      </c>
       <c r="D6" s="1">
-        <v>3893670000000</v>
-      </c>
-      <c r="E6" s="1">
         <v>2259642382872</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3686935000000</v>
       </c>
       <c r="D7" s="1">
-        <v>3686935000000</v>
-      </c>
-      <c r="E7" s="1">
         <v>2647898654635</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3086226000000</v>
       </c>
       <c r="D8" s="1">
-        <v>3086226000000</v>
-      </c>
-      <c r="E8" s="1">
         <v>2465453975282</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2362318000000</v>
       </c>
       <c r="D9" s="1">
-        <v>2362318000000</v>
-      </c>
-      <c r="E9" s="1">
         <v>1529760492201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2169384000000</v>
       </c>
       <c r="D10" s="1">
-        <v>2169384000000</v>
-      </c>
-      <c r="E10" s="1">
         <v>1858913163928</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1980483000000</v>
       </c>
       <c r="D11" s="1">
-        <v>1980483000000</v>
-      </c>
-      <c r="E11" s="1">
         <v>1795925681016</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1919562000000</v>
       </c>
       <c r="D12" s="1">
-        <v>1919562000000</v>
-      </c>
-      <c r="E12" s="1">
         <v>1411245589977</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1828394000000</v>
       </c>
       <c r="D13" s="1">
-        <v>1828394000000</v>
-      </c>
-      <c r="E13" s="1">
         <v>1304463104965</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1782602000000</v>
       </c>
       <c r="D14" s="1">
-        <v>1782602000000</v>
-      </c>
-      <c r="E14" s="1">
         <v>425402616011</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1713154000000</v>
       </c>
       <c r="D15" s="1">
-        <v>1713154000000</v>
-      </c>
-      <c r="E15" s="1">
         <v>1246015056927</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1519090000000</v>
       </c>
       <c r="D16" s="1">
-        <v>1519090000000</v>
-      </c>
-      <c r="E16" s="1">
         <v>1237255019654</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1410748000000</v>
       </c>
       <c r="D17" s="1">
-        <v>1410748000000</v>
-      </c>
-      <c r="E17" s="1">
         <v>932259177621</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1379727000000</v>
       </c>
       <c r="D18" s="1">
-        <v>1379727000000</v>
-      </c>
-      <c r="E18" s="1">
         <v>1076914464477</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1072789000000</v>
       </c>
       <c r="D19" s="1">
-        <v>1072789000000</v>
-      </c>
-      <c r="E19" s="1">
         <v>777227541581</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1021905000000</v>
       </c>
       <c r="D20" s="1">
-        <v>1021905000000</v>
-      </c>
-      <c r="E20" s="1">
         <v>639617050945</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>892516000000</v>
       </c>
       <c r="D21" s="1">
-        <v>892516000000</v>
-      </c>
-      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>888199000000</v>
       </c>
       <c r="D22" s="1">
-        <v>888199000000</v>
-      </c>
-      <c r="E22" s="1">
         <v>668851296244</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>755645000000</v>
       </c>
       <c r="D23" s="1">
-        <v>755645000000</v>
-      </c>
-      <c r="E23" s="1">
         <v>471402266588</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>714305000000</v>
       </c>
       <c r="D24" s="1">
-        <v>714305000000</v>
-      </c>
-      <c r="E24" s="1">
         <v>863711710542</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>669872000000</v>
       </c>
       <c r="D25" s="1">
-        <v>669872000000</v>
-      </c>
-      <c r="E25" s="1">
         <v>514475856961</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>639716000000</v>
       </c>
       <c r="D26" s="1">
-        <v>639716000000</v>
-      </c>
-      <c r="E26" s="1">
         <v>467955267357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>580121000000</v>
       </c>
       <c r="D27" s="1">
-        <v>580121000000</v>
-      </c>
-      <c r="E27" s="1">
         <v>404649125399</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>573633000000</v>
       </c>
       <c r="D28" s="1">
-        <v>573633000000</v>
-      </c>
-      <c r="E28" s="1">
         <v>545866164479</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>562134000000</v>
       </c>
       <c r="D29" s="1">
-        <v>562134000000</v>
-      </c>
-      <c r="E29" s="1">
         <v>304819019837</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <v>556372000000</v>
       </c>
       <c r="D30" s="1">
-        <v>556372000000</v>
-      </c>
-      <c r="E30" s="1">
         <v>407026319505</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>549733000000</v>
       </c>
       <c r="D31" s="1">
-        <v>549733000000</v>
-      </c>
-      <c r="E31" s="1">
         <v>371068933176</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <v>547765000000</v>
       </c>
       <c r="D32" s="1">
-        <v>547765000000</v>
-      </c>
-      <c r="E32" s="1">
         <v>317747579750</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>518808000000</v>
       </c>
       <c r="D33" s="1">
-        <v>518808000000</v>
-      </c>
-      <c r="E33" s="1">
         <v>390799991147</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="C34" s="1">
+        <v>506234000000</v>
       </c>
       <c r="D34" s="1">
-        <v>506234000000</v>
-      </c>
-      <c r="E34" s="1">
         <v>348743627620</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <v>481988000000</v>
       </c>
       <c r="D35" s="1">
-        <v>481988000000</v>
-      </c>
-      <c r="E35" s="1">
         <v>296531469473</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>462644000000</v>
       </c>
       <c r="D36" s="1">
-        <v>462644000000</v>
-      </c>
-      <c r="E36" s="1">
         <v>205276171343</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="C37" s="1">
+        <v>450999000000</v>
       </c>
       <c r="D37" s="1">
-        <v>450999000000</v>
-      </c>
-      <c r="E37" s="1">
         <v>296946278392</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <v>450361000000</v>
       </c>
       <c r="D38" s="1">
-        <v>450361000000</v>
-      </c>
-      <c r="E38" s="1">
         <v>270143813412</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="1">
+        <v>447720000000</v>
       </c>
       <c r="D39" s="1">
-        <v>447720000000</v>
-      </c>
-      <c r="E39" s="1">
         <v>295440009818</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
+        <v>445827000000</v>
       </c>
       <c r="D40" s="1">
-        <v>445827000000</v>
-      </c>
-      <c r="E40" s="1">
         <v>304905638877</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>438436000000</v>
       </c>
       <c r="D41" s="1">
-        <v>438436000000</v>
-      </c>
-      <c r="E41" s="1">
         <v>220836732893</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <v>419266000000</v>
       </c>
       <c r="D42" s="1">
-        <v>419266000000</v>
-      </c>
-      <c r="E42" s="1">
         <v>306899653410</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="1">
+        <v>391338000000</v>
       </c>
       <c r="D43" s="1">
-        <v>391338000000</v>
-      </c>
-      <c r="E43" s="1">
         <v>320912235499</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <v>370470000000</v>
       </c>
       <c r="D44" s="1">
-        <v>370470000000</v>
-      </c>
-      <c r="E44" s="1">
         <v>282462551367</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <v>351036000000</v>
       </c>
       <c r="D45" s="1">
-        <v>351036000000</v>
-      </c>
-      <c r="E45" s="1">
         <v>247045730477</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="1">
+        <v>318938000000</v>
       </c>
       <c r="D46" s="1">
-        <v>318938000000</v>
-      </c>
-      <c r="E46" s="1">
         <v>195305084919</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="C47" s="1">
+        <v>314502000000</v>
       </c>
       <c r="D47" s="1">
-        <v>314502000000</v>
-      </c>
-      <c r="E47" s="1">
         <v>238502900312</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>312694000000</v>
       </c>
       <c r="D48" s="1">
-        <v>312694000000</v>
-      </c>
-      <c r="E48" s="1">
         <v>186690976699</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>299409000000</v>
       </c>
       <c r="D49" s="1">
-        <v>299409000000</v>
-      </c>
-      <c r="E49" s="1">
         <v>160021001474</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="C50" s="1">
+        <v>276720000000</v>
       </c>
       <c r="D50" s="1">
-        <v>276720000000</v>
-      </c>
-      <c r="E50" s="1">
         <v>187517098554</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="C51" s="1">
+        <v>267241000000</v>
       </c>
       <c r="D51" s="1">
-        <v>267241000000</v>
-      </c>
-      <c r="E51" s="1">
         <v>204836597909</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>257960000000</v>
       </c>
       <c r="D52" s="1">
-        <v>257960000000</v>
-      </c>
-      <c r="E52" s="1">
         <v>192209529586</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="C53" s="1">
+        <v>234808000000</v>
       </c>
       <c r="D53" s="1">
-        <v>234808000000</v>
-      </c>
-      <c r="E53" s="1">
         <v>192690813127</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="C54" s="1">
+        <v>228356000000</v>
       </c>
       <c r="D54" s="1">
-        <v>228356000000</v>
-      </c>
-      <c r="E54" s="1">
         <v>152451923077</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="C55" s="1">
+        <v>225928000000</v>
       </c>
       <c r="D55" s="1">
-        <v>225928000000</v>
-      </c>
-      <c r="E55" s="1">
         <v>135005203998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="C56" s="1">
+        <v>219463000000</v>
       </c>
       <c r="D56" s="1">
-        <v>219463000000</v>
-      </c>
-      <c r="E56" s="1">
         <v>125816640421</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="C57" s="1">
+        <v>199382000000</v>
       </c>
       <c r="D57" s="1">
-        <v>199382000000</v>
-      </c>
-      <c r="E57" s="1">
         <v>159049145187</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C58" s="1">
+        <v>180665000000</v>
       </c>
       <c r="D58" s="1">
-        <v>180665000000</v>
-      </c>
-      <c r="E58" s="1">
         <v>110346129191</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="C59" s="1">
+        <v>142967000000</v>
       </c>
       <c r="D59" s="1">
-        <v>142967000000</v>
-      </c>
-      <c r="E59" s="1">
         <v>103606574896</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="C60" s="1">
+        <v>133335000000</v>
       </c>
       <c r="D60" s="1">
-        <v>133335000000</v>
-      </c>
-      <c r="E60" s="1">
         <v>106917535790</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="C61" s="1">
+        <v>131046000000</v>
       </c>
       <c r="D61" s="1">
-        <v>131046000000</v>
-      </c>
-      <c r="E61" s="1">
         <v>89768598023</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="C62" s="1">
+        <v>121068000000</v>
       </c>
       <c r="D62" s="1">
-        <v>121068000000</v>
-      </c>
-      <c r="E62" s="1">
         <v>105034500000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="C63" s="1">
+        <v>120246000000</v>
       </c>
       <c r="D63" s="1">
-        <v>120246000000</v>
-      </c>
-      <c r="E63" s="1">
         <v>98010212618</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="C64" s="1">
+        <v>119127000000</v>
       </c>
       <c r="D64" s="1">
-        <v>119127000000</v>
-      </c>
-      <c r="E64" s="1">
         <v>70525979046</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="C65" s="1">
+        <v>116544000000</v>
       </c>
       <c r="D65" s="1">
-        <v>116544000000</v>
-      </c>
-      <c r="E65" s="1">
         <v>71583585170</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="C66" s="1">
+        <v>116247000000</v>
       </c>
       <c r="D66" s="1">
-        <v>116247000000</v>
-      </c>
-      <c r="E66" s="1">
         <v>70314560872</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="C67" s="1">
+        <v>110250000000</v>
       </c>
       <c r="D67" s="1">
-        <v>110250000000</v>
-      </c>
-      <c r="E67" s="1">
         <v>63170959402</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>97798000000</v>
       </c>
       <c r="D68" s="1">
-        <v>97798000000</v>
-      </c>
-      <c r="E68" s="1">
         <v>53239643485</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>95988000000</v>
       </c>
       <c r="D69" s="1">
-        <v>95988000000</v>
-      </c>
-      <c r="E69" s="1">
         <v>68762920570</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="C70" s="1">
+        <v>91773000000</v>
       </c>
       <c r="D70" s="1">
-        <v>91773000000</v>
-      </c>
-      <c r="E70" s="1">
         <v>58631324559</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>87121000000</v>
       </c>
       <c r="D71" s="1">
-        <v>87121000000</v>
-      </c>
-      <c r="E71" s="1">
         <v>81321970966</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="C72" s="1">
+        <v>86152000000</v>
       </c>
       <c r="D72" s="1">
-        <v>86152000000</v>
-      </c>
-      <c r="E72" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="C73" s="1">
+        <v>84893000000</v>
       </c>
       <c r="D73" s="1">
-        <v>84893000000</v>
-      </c>
-      <c r="E73" s="1">
         <v>36179885714</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="C74" s="1">
+        <v>81809000000</v>
       </c>
       <c r="D74" s="1">
-        <v>81809000000</v>
-      </c>
-      <c r="E74" s="1">
         <v>67778902435</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="C75" s="1">
+        <v>80338000000</v>
       </c>
       <c r="D75" s="1">
-        <v>80338000000</v>
-      </c>
-      <c r="E75" s="1">
         <v>36767790205</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C76" s="1">
+        <v>78893000000</v>
       </c>
       <c r="D76" s="1">
-        <v>78893000000</v>
-      </c>
-      <c r="E76" s="1">
         <v>42793869465</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76549000000</v>
       </c>
       <c r="D77" s="1">
-        <v>76549000000</v>
-      </c>
-      <c r="E77" s="1">
         <v>55187800000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="C78" s="1">
+        <v>75992000000</v>
       </c>
       <c r="D78" s="1">
-        <v>75992000000</v>
-      </c>
-      <c r="E78" s="1">
         <v>42773029835</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="C79" s="1">
+        <v>75827000000</v>
       </c>
       <c r="D79" s="1">
-        <v>75827000000</v>
-      </c>
-      <c r="E79" s="1">
         <v>51231002611</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="C80" s="1">
+        <v>73543000000</v>
       </c>
       <c r="D80" s="1">
-        <v>73543000000</v>
-      </c>
-      <c r="E80" s="1">
         <v>65697616068</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="C81" s="1">
+        <v>72912000000</v>
       </c>
       <c r="D81" s="1">
-        <v>72912000000</v>
-      </c>
-      <c r="E81" s="1">
         <v>37847204069</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="C82" s="1">
+        <v>72587000000</v>
       </c>
       <c r="D82" s="1">
-        <v>72587000000</v>
-      </c>
-      <c r="E82" s="1">
         <v>38299871897</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="C83" s="1">
+        <v>71487000000</v>
       </c>
       <c r="D83" s="1">
-        <v>71487000000</v>
-      </c>
-      <c r="E83" s="1">
         <v>40337492609</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="C84" s="1">
+        <v>69888000000</v>
       </c>
       <c r="D84" s="1">
-        <v>69888000000</v>
-      </c>
-      <c r="E84" s="1">
         <v>44708598649</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="C85" s="1">
+        <v>68180000000</v>
       </c>
       <c r="D85" s="1">
-        <v>68180000000</v>
-      </c>
-      <c r="E85" s="1">
         <v>57435510668</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="C86" s="1">
+        <v>66988000000</v>
       </c>
       <c r="D86" s="1">
-        <v>66988000000</v>
-      </c>
-      <c r="E86" s="1">
         <v>52419718459</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
+        <v>89</v>
+      </c>
+      <c r="C87" s="1">
+        <v>60188000000</v>
       </c>
       <c r="D87" s="1">
-        <v>60188000000</v>
-      </c>
-      <c r="E87" s="1">
         <v>47408111179</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
+        <v>90</v>
+      </c>
+      <c r="C88" s="1">
+        <v>50461000000</v>
       </c>
       <c r="D88" s="1">
-        <v>50461000000</v>
-      </c>
-      <c r="E88" s="1">
         <v>38654647887</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="C89" s="1">
+        <v>50100000000</v>
       </c>
       <c r="D89" s="1">
-        <v>50100000000</v>
-      </c>
-      <c r="E89" s="1">
         <v>25307842467</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="C90" s="1">
+        <v>49823000000</v>
       </c>
       <c r="D90" s="1">
-        <v>49823000000</v>
-      </c>
-      <c r="E90" s="1">
         <v>291376437340</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" t="s">
-        <v>36</v>
+        <v>93</v>
+      </c>
+      <c r="C91" s="1">
+        <v>49518000000</v>
       </c>
       <c r="D91" s="1">
-        <v>49518000000</v>
-      </c>
-      <c r="E91" s="1">
         <v>32217073816</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45421000000</v>
       </c>
       <c r="D92" s="1">
-        <v>45421000000</v>
-      </c>
-      <c r="E92" s="1">
         <v>32179073596</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45195000000</v>
       </c>
       <c r="D93" s="1">
-        <v>45195000000</v>
-      </c>
-      <c r="E93" s="1">
         <v>42959534586</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
+        <v>96</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44856000000</v>
       </c>
       <c r="D94" s="1">
-        <v>44856000000</v>
-      </c>
-      <c r="E94" s="1">
         <v>45311080521</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44671000000</v>
       </c>
       <c r="D95" s="1">
-        <v>44671000000</v>
-      </c>
-      <c r="E95" s="1">
         <v>27165101909</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43351000000</v>
       </c>
       <c r="D96" s="1">
-        <v>43351000000</v>
-      </c>
-      <c r="E96" s="1">
         <v>33806395465</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43128000000</v>
       </c>
       <c r="D97" s="1">
-        <v>43128000000</v>
-      </c>
-      <c r="E97" s="1">
         <v>27572698482</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="C98" s="1">
+        <v>40102000000</v>
       </c>
       <c r="D98" s="1">
-        <v>40102000000</v>
-      </c>
-      <c r="E98" s="1">
         <v>23337920560</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
+        <v>101</v>
+      </c>
+      <c r="C99" s="1">
+        <v>39028000000</v>
       </c>
       <c r="D99" s="1">
-        <v>39028000000</v>
-      </c>
-      <c r="E99" s="1">
         <v>20914004957</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="C100" s="1">
+        <v>34654000000</v>
       </c>
       <c r="D100" s="1">
-        <v>34654000000</v>
-      </c>
-      <c r="E100" s="1">
         <v>16123763648</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="s">
-        <v>21</v>
+        <v>103</v>
+      </c>
+      <c r="C101" s="1">
+        <v>32334000000</v>
       </c>
       <c r="D101" s="1">
-        <v>32334000000</v>
-      </c>
-      <c r="E101" s="1">
         <v>19694115731</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="C102" s="1">
+        <v>32223000000</v>
       </c>
       <c r="D102" s="1">
-        <v>32223000000</v>
-      </c>
-      <c r="E102" s="1">
         <v>26797469656</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+      <c r="C103" s="1">
+        <v>32107000000</v>
       </c>
       <c r="D103" s="1">
-        <v>32107000000</v>
-      </c>
-      <c r="E103" s="1">
         <v>14604520531</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="C104" s="1">
+        <v>31661000000</v>
       </c>
       <c r="D104" s="1">
-        <v>31661000000</v>
-      </c>
-      <c r="E104" s="1">
         <v>21516915353</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="C105" s="1">
+        <v>30239000000</v>
       </c>
       <c r="D105" s="1">
-        <v>30239000000</v>
-      </c>
-      <c r="E105" s="1">
         <v>20016747858</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="C106" s="1">
+        <v>30137000000</v>
       </c>
       <c r="D106" s="1">
-        <v>30137000000</v>
-      </c>
-      <c r="E106" s="1">
         <v>20046234311</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="C107" s="1">
+        <v>29556000000</v>
       </c>
       <c r="D107" s="1">
-        <v>29556000000</v>
-      </c>
-      <c r="E107" s="1">
         <v>25374086438</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="C108" s="1">
+        <v>29476000000</v>
       </c>
       <c r="D108" s="1">
-        <v>29476000000</v>
-      </c>
-      <c r="E108" s="1">
         <v>20269659972</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" t="s">
-        <v>36</v>
+        <v>111</v>
+      </c>
+      <c r="C109" s="1">
+        <v>27709000000</v>
       </c>
       <c r="D109" s="1">
-        <v>27709000000</v>
-      </c>
-      <c r="E109" s="1">
         <v>21063063977</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
+        <v>112</v>
+      </c>
+      <c r="C110" s="1">
+        <v>27708000000</v>
       </c>
       <c r="D110" s="1">
-        <v>27708000000</v>
-      </c>
-      <c r="E110" s="1">
         <v>11400266878</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="C111" s="1">
+        <v>25030000000</v>
       </c>
       <c r="D111" s="1">
-        <v>25030000000</v>
-      </c>
-      <c r="E111" s="1">
         <v>24086176564</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="C112" s="1">
+        <v>24971000000</v>
       </c>
       <c r="D112" s="1">
-        <v>24971000000</v>
-      </c>
-      <c r="E112" s="1">
         <v>16909904149</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
+        <v>115</v>
+      </c>
+      <c r="C113" s="1">
+        <v>23300000000</v>
       </c>
       <c r="D113" s="1">
-        <v>23300000000</v>
-      </c>
-      <c r="E113" s="1">
         <v>14332728707</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C114" s="1">
+        <v>22945000000</v>
       </c>
       <c r="D114" s="1">
-        <v>22945000000</v>
-      </c>
-      <c r="E114" s="1">
         <v>8476136811</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="C115" s="1">
+        <v>22472000000</v>
       </c>
       <c r="D115" s="1">
-        <v>22472000000</v>
-      </c>
-      <c r="E115" s="1">
         <v>13863183526</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
-      </c>
-      <c r="C116" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="C116" s="1">
+        <v>21280000000</v>
       </c>
       <c r="D116" s="1">
-        <v>21280000000</v>
-      </c>
-      <c r="E116" s="1">
         <v>11695117109</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="C117" s="1">
+        <v>21195000000</v>
       </c>
       <c r="D117" s="1">
-        <v>21195000000</v>
-      </c>
-      <c r="E117" s="1">
         <v>7647347306</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" t="s">
-        <v>36</v>
+        <v>120</v>
+      </c>
+      <c r="C118" s="1">
+        <v>21191000000</v>
       </c>
       <c r="D118" s="1">
-        <v>21191000000</v>
-      </c>
-      <c r="E118" s="1">
         <v>14001696748</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="C119" s="1">
+        <v>21047000000</v>
       </c>
       <c r="D119" s="1">
-        <v>21047000000</v>
-      </c>
-      <c r="E119" s="1">
         <v>11160356685</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" t="s">
-        <v>36</v>
+        <v>122</v>
+      </c>
+      <c r="C120" s="1">
+        <v>20029000000</v>
       </c>
       <c r="D120" s="1">
-        <v>20029000000</v>
-      </c>
-      <c r="E120" s="1">
         <v>8893638002</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
-      </c>
-      <c r="C121" t="s">
-        <v>36</v>
+        <v>123</v>
+      </c>
+      <c r="C121" s="1">
+        <v>19821000000</v>
       </c>
       <c r="D121" s="1">
-        <v>19821000000</v>
-      </c>
-      <c r="E121" s="1">
         <v>15566057294</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C122" t="s">
-        <v>36</v>
+        <v>124</v>
+      </c>
+      <c r="C122" s="1">
+        <v>19519000000</v>
       </c>
       <c r="D122" s="1">
-        <v>19519000000</v>
-      </c>
-      <c r="E122" s="1">
         <v>10930131568</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="C123" s="1">
+        <v>19062000000</v>
       </c>
       <c r="D123" s="1">
-        <v>19062000000</v>
-      </c>
-      <c r="E123" s="1">
         <v>11863866791</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
+        <v>126</v>
+      </c>
+      <c r="C124" s="1">
+        <v>18627000000</v>
       </c>
       <c r="D124" s="1">
-        <v>18627000000</v>
-      </c>
-      <c r="E124" s="1">
         <v>10998577038</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
+        <v>127</v>
+      </c>
+      <c r="C125" s="1">
+        <v>17996000000</v>
       </c>
       <c r="D125" s="1">
-        <v>17996000000</v>
-      </c>
-      <c r="E125" s="1">
         <v>15805707090</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" t="s">
-        <v>36</v>
+        <v>128</v>
+      </c>
+      <c r="C126" s="1">
+        <v>17303000000</v>
       </c>
       <c r="D126" s="1">
-        <v>17303000000</v>
-      </c>
-      <c r="E126" s="1">
         <v>7528285819</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="C127" s="1">
+        <v>16776000000</v>
       </c>
       <c r="D127" s="1">
-        <v>16776000000</v>
-      </c>
-      <c r="E127" s="1">
         <v>13230214875</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" t="s">
-        <v>18</v>
+        <v>130</v>
+      </c>
+      <c r="C128" s="1">
+        <v>16377000000</v>
       </c>
       <c r="D128" s="1">
-        <v>16377000000</v>
-      </c>
-      <c r="E128" s="1">
         <v>3436626633</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="C129" s="1">
+        <v>16208000000</v>
       </c>
       <c r="D129" s="1">
-        <v>16208000000</v>
-      </c>
-      <c r="E129" s="1">
         <v>14056901075</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
+        <v>132</v>
+      </c>
+      <c r="C130" s="1">
+        <v>15842000000</v>
       </c>
       <c r="D130" s="1">
-        <v>15842000000</v>
-      </c>
-      <c r="E130" s="1">
         <v>10572299425</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="C131" s="1">
+        <v>15641000000</v>
       </c>
       <c r="D131" s="1">
-        <v>15641000000</v>
-      </c>
-      <c r="E131" s="1">
         <v>7778081883</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="C132" s="1">
+        <v>15546000000</v>
       </c>
       <c r="D132" s="1">
-        <v>15546000000</v>
-      </c>
-      <c r="E132" s="1">
         <v>10745782586</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="C133" s="1">
+        <v>15189000000</v>
       </c>
       <c r="D133" s="1">
-        <v>15189000000</v>
-      </c>
-      <c r="E133" s="1">
         <v>11222263845</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" t="s">
-        <v>36</v>
+        <v>136</v>
+      </c>
+      <c r="C134" s="1">
+        <v>14956000000</v>
       </c>
       <c r="D134" s="1">
-        <v>14956000000</v>
-      </c>
-      <c r="E134" s="1">
         <v>10677940568</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" t="s">
-        <v>36</v>
+        <v>137</v>
+      </c>
+      <c r="C135" s="1">
+        <v>14205000000</v>
       </c>
       <c r="D135" s="1">
-        <v>14205000000</v>
-      </c>
-      <c r="E135" s="1">
         <v>10947277246</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
+        <v>138</v>
+      </c>
+      <c r="C136" s="1">
+        <v>13752000000</v>
       </c>
       <c r="D136" s="1">
-        <v>13752000000</v>
-      </c>
-      <c r="E136" s="1">
         <v>6772647958</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="C137" s="1">
+        <v>13630000000</v>
       </c>
       <c r="D137" s="1">
-        <v>13630000000</v>
-      </c>
-      <c r="E137" s="1">
         <v>11261800000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
-      </c>
-      <c r="C138" t="s">
-        <v>36</v>
+        <v>140</v>
+      </c>
+      <c r="C138" s="1">
+        <v>13517000000</v>
       </c>
       <c r="D138" s="1">
-        <v>13517000000</v>
-      </c>
-      <c r="E138" s="1">
         <v>11267295771</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" t="s">
-        <v>36</v>
+        <v>141</v>
+      </c>
+      <c r="C139" s="1">
+        <v>13170000000</v>
       </c>
       <c r="D139" s="1">
-        <v>13170000000</v>
-      </c>
-      <c r="E139" s="1">
         <v>8473784827</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
-      </c>
-      <c r="C140" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="C140" s="1">
+        <v>12538000000</v>
       </c>
       <c r="D140" s="1">
-        <v>12538000000</v>
-      </c>
-      <c r="E140" s="1">
         <v>12216235024</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" t="s">
-        <v>36</v>
+        <v>143</v>
+      </c>
+      <c r="C141" s="1">
+        <v>11325000000</v>
       </c>
       <c r="D141" s="1">
-        <v>11325000000</v>
-      </c>
-      <c r="E141" s="1">
         <v>5318197658</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
-      </c>
-      <c r="C142" t="s">
-        <v>36</v>
+        <v>144</v>
+      </c>
+      <c r="C142" s="1">
+        <v>10771000000</v>
       </c>
       <c r="D142" s="1">
-        <v>10771000000</v>
-      </c>
-      <c r="E142" s="1">
         <v>6534451826</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143" t="s">
-        <v>36</v>
+        <v>145</v>
+      </c>
+      <c r="C143" s="1">
+        <v>9705000000</v>
       </c>
       <c r="D143" s="1">
-        <v>9705000000</v>
-      </c>
-      <c r="E143" s="1">
         <v>4667119320</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" t="s">
-        <v>36</v>
+        <v>146</v>
+      </c>
+      <c r="C144" s="1">
+        <v>9539000000</v>
       </c>
       <c r="D144" s="1">
-        <v>9539000000</v>
-      </c>
-      <c r="E144" s="1">
         <v>4449262345</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
+        <v>147</v>
+      </c>
+      <c r="C145" s="1">
+        <v>9511000000</v>
       </c>
       <c r="D145" s="1">
-        <v>9511000000</v>
-      </c>
-      <c r="E145" s="1">
         <v>6551291140</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
-      </c>
-      <c r="C146" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="C146" s="1">
+        <v>9185000000</v>
       </c>
       <c r="D146" s="1">
-        <v>9185000000</v>
-      </c>
-      <c r="E146" s="1">
         <v>1318057519</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147" t="s">
-        <v>8</v>
+        <v>149</v>
+      </c>
+      <c r="C147" s="1">
+        <v>7699000000</v>
       </c>
       <c r="D147" s="1">
-        <v>7699000000</v>
-      </c>
-      <c r="E147" s="1">
         <v>6951679338</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="C148" s="1">
+        <v>6679000000</v>
       </c>
       <c r="D148" s="1">
-        <v>6679000000</v>
-      </c>
-      <c r="E148" s="1">
         <v>4373958354</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
+        <v>151</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6109000000</v>
       </c>
       <c r="D149" s="1">
-        <v>6109000000</v>
-      </c>
-      <c r="E149" s="1">
         <v>4224207488</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5926000000</v>
       </c>
       <c r="D150" s="1">
-        <v>5926000000</v>
-      </c>
-      <c r="E150" s="1">
         <v>4552793288</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
-      </c>
-      <c r="C151" t="s">
-        <v>21</v>
+        <v>153</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5734000000</v>
       </c>
       <c r="D151" s="1">
-        <v>5734000000</v>
-      </c>
-      <c r="E151" s="1">
         <v>4671118364</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
-      </c>
-      <c r="C152" t="s">
-        <v>36</v>
+        <v>154</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4945000000</v>
       </c>
       <c r="D152" s="1">
-        <v>4945000000</v>
-      </c>
-      <c r="E152" s="1">
         <v>4007002048</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153" t="s">
-        <v>36</v>
+        <v>155</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4266000000</v>
       </c>
       <c r="D153" s="1">
-        <v>4266000000</v>
-      </c>
-      <c r="E153" s="1">
         <v>3674756785</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" t="s">
-        <v>36</v>
+        <v>156</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4199000000</v>
       </c>
       <c r="D154" s="1">
-        <v>4199000000</v>
-      </c>
-      <c r="E154" s="1">
         <v>1891520369</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155" t="s">
-        <v>36</v>
+        <v>157</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4064000000</v>
       </c>
       <c r="D155" s="1">
-        <v>4064000000</v>
-      </c>
-      <c r="E155" s="1">
         <v>2756817825</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156" t="s">
-        <v>36</v>
+        <v>158</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3686000000</v>
       </c>
       <c r="D156" s="1">
-        <v>3686000000</v>
-      </c>
-      <c r="E156" s="1">
         <v>2873699606</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3580000000</v>
       </c>
       <c r="D157" s="1">
-        <v>3580000000</v>
-      </c>
-      <c r="E157" s="1">
         <v>2858406626</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3395000000</v>
       </c>
       <c r="D158" s="1">
-        <v>3395000000</v>
-      </c>
-      <c r="E158" s="1">
         <v>2667039106</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3119000000</v>
       </c>
       <c r="D159" s="1">
-        <v>3119000000</v>
-      </c>
-      <c r="E159" s="1">
         <v>3278445033</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160" t="s">
-        <v>8</v>
+        <v>162</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2881000000</v>
       </c>
       <c r="D160" s="1">
-        <v>2881000000</v>
-      </c>
-      <c r="E160" s="1">
         <v>2212642587</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" t="s">
-        <v>36</v>
+        <v>163</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2877000000</v>
       </c>
       <c r="D161" s="1">
-        <v>2877000000</v>
-      </c>
-      <c r="E161" s="1">
         <v>1810388740</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C162" t="s">
-        <v>36</v>
+        <v>164</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2777000000</v>
       </c>
       <c r="D162" s="1">
-        <v>2777000000</v>
-      </c>
-      <c r="E162" s="1">
         <v>5413804303</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163" t="s">
-        <v>36</v>
+        <v>165</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2716000000</v>
       </c>
       <c r="D163" s="1">
-        <v>2716000000</v>
-      </c>
-      <c r="E163" s="1">
         <v>2241017076</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
-      </c>
-      <c r="C164" t="s">
-        <v>36</v>
+        <v>166</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2341000000</v>
       </c>
       <c r="D164" s="1">
-        <v>2341000000</v>
-      </c>
-      <c r="E164" s="1">
         <v>985831536</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165" t="s">
-        <v>6</v>
+        <v>167</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2277000000</v>
       </c>
       <c r="D165" s="1">
-        <v>2277000000</v>
-      </c>
-      <c r="E165" s="1">
         <v>1397066906</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166" t="s">
-        <v>36</v>
+        <v>168</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2178000000</v>
       </c>
       <c r="D166" s="1">
-        <v>2178000000</v>
-      </c>
-      <c r="E166" s="1">
         <v>1638928099</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6</v>
+        <v>169</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2135000000</v>
       </c>
       <c r="D167" s="1">
-        <v>2135000000</v>
-      </c>
-      <c r="E167" s="1">
         <v>1741100000</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168" t="s">
-        <v>8</v>
+        <v>170</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2035000000</v>
       </c>
       <c r="D168" s="1">
-        <v>2035000000</v>
-      </c>
-      <c r="E168" s="1">
         <v>2703285752</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" t="s">
-        <v>36</v>
+        <v>171</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1804000000</v>
       </c>
       <c r="D169" s="1">
-        <v>1804000000</v>
-      </c>
-      <c r="E169" s="1">
         <v>1433826317</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
-      </c>
-      <c r="C170" t="s">
-        <v>36</v>
+        <v>172</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1802000000</v>
       </c>
       <c r="D170" s="1">
-        <v>1802000000</v>
-      </c>
-      <c r="E170" s="1">
         <v>1122643236</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
-      </c>
-      <c r="C171" t="s">
-        <v>21</v>
+        <v>173</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1783000000</v>
       </c>
       <c r="D171" s="1">
-        <v>1783000000</v>
-      </c>
-      <c r="E171" s="1">
         <v>1133967215</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1777000000</v>
       </c>
       <c r="D172" s="1">
-        <v>1777000000</v>
-      </c>
-      <c r="E172" s="1">
         <v>1590761265</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
-      </c>
-      <c r="C173" t="s">
-        <v>6</v>
+        <v>175</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1768000000</v>
       </c>
       <c r="D173" s="1">
-        <v>1768000000</v>
-      </c>
-      <c r="E173" s="1">
         <v>1460157909</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1386000000</v>
       </c>
       <c r="D174" s="1">
-        <v>1386000000</v>
-      </c>
-      <c r="E174" s="1">
         <v>1149802573</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
-      </c>
-      <c r="C175" t="s">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1275000000</v>
       </c>
       <c r="D175" s="1">
-        <v>1275000000</v>
-      </c>
-      <c r="E175" s="1">
         <v>1016208148</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
-      </c>
-      <c r="C176" t="s">
-        <v>6</v>
+        <v>178</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1216000000</v>
       </c>
       <c r="D176" s="1">
-        <v>1216000000</v>
-      </c>
-      <c r="E176" s="1">
         <v>909854620</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
-      </c>
-      <c r="C177" t="s">
-        <v>21</v>
+        <v>179</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1071000000</v>
       </c>
       <c r="D177" s="1">
-        <v>1071000000</v>
-      </c>
-      <c r="E177" s="1">
         <v>837519790</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
-      </c>
-      <c r="C178" t="s">
-        <v>6</v>
+        <v>180</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1043000000</v>
       </c>
       <c r="D178" s="1">
-        <v>1043000000</v>
-      </c>
-      <c r="E178" s="1">
         <v>765318745</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
-      </c>
-      <c r="C179" t="s">
-        <v>21</v>
+        <v>181</v>
+      </c>
+      <c r="C179" s="1">
+        <v>868000000</v>
       </c>
       <c r="D179" s="1">
-        <v>868000000</v>
-      </c>
-      <c r="E179" s="1">
         <v>822233281</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6</v>
+        <v>182</v>
+      </c>
+      <c r="C180" s="1">
+        <v>695000000</v>
       </c>
       <c r="D180" s="1">
-        <v>695000000</v>
-      </c>
-      <c r="E180" s="1">
         <v>581484032</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
-      </c>
-      <c r="C181" t="s">
-        <v>21</v>
+        <v>183</v>
+      </c>
+      <c r="C181" s="1">
+        <v>574000000</v>
       </c>
       <c r="D181" s="1">
-        <v>574000000</v>
-      </c>
-      <c r="E181" s="1">
         <v>401460313</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
-      </c>
-      <c r="C182" t="s">
-        <v>36</v>
+        <v>184</v>
+      </c>
+      <c r="C182" s="1">
+        <v>569000000</v>
       </c>
       <c r="D182" s="1">
-        <v>569000000</v>
-      </c>
-      <c r="E182" s="1">
         <v>342781695</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
-      </c>
-      <c r="C183" t="s">
-        <v>21</v>
+        <v>185</v>
+      </c>
+      <c r="C183" s="1">
+        <v>452000000</v>
       </c>
       <c r="D183" s="1">
-        <v>452000000</v>
-      </c>
-      <c r="E183" s="1">
         <v>329895643</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
-      </c>
-      <c r="C184" t="s">
-        <v>21</v>
+        <v>186</v>
+      </c>
+      <c r="C184" s="1">
+        <v>296000000</v>
       </c>
       <c r="D184" s="1">
-        <v>296000000</v>
-      </c>
-      <c r="E184" s="1">
         <v>310248000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
-      </c>
-      <c r="C185" t="s">
-        <v>21</v>
+        <v>187</v>
+      </c>
+      <c r="C185" s="1">
+        <v>284000000</v>
       </c>
       <c r="D185" s="1">
-        <v>284000000</v>
-      </c>
-      <c r="E185" s="1">
         <v>183000000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
-      </c>
-      <c r="C186" t="s">
-        <v>21</v>
+        <v>188</v>
+      </c>
+      <c r="C186" s="1">
+        <v>233000000</v>
       </c>
       <c r="D186" s="1">
-        <v>233000000</v>
-      </c>
-      <c r="E186" s="1">
         <v>173655146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
-      </c>
-      <c r="C187" t="s">
-        <v>21</v>
+        <v>189</v>
+      </c>
+      <c r="C187" s="1">
+        <v>138000000</v>
       </c>
       <c r="D187" s="1">
-        <v>138000000</v>
-      </c>
-      <c r="E187" s="1">
         <v>103469824</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
-      </c>
-      <c r="C188" t="s">
-        <v>21</v>
+        <v>190</v>
+      </c>
+      <c r="C188" s="1">
+        <v>71000000</v>
       </c>
       <c r="D188" s="1">
-        <v>71000000</v>
-      </c>
-      <c r="E188" s="1">
         <v>36697185</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
-      </c>
-      <c r="C189" t="s">
-        <v>8</v>
+        <v>191</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0</v>
       </c>
       <c r="D189" s="1">
-        <v>0</v>
-      </c>
-      <c r="E189" s="1">
         <v>20235063330</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
+        <v>192</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
       </c>
       <c r="D190" s="1">
-        <v>0</v>
-      </c>
-      <c r="E190" s="1">
         <v>6127341000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
+        <v>193</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
       </c>
       <c r="D191" s="1">
-        <v>0</v>
-      </c>
-      <c r="E191" s="1">
         <v>971237110</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
+        <v>194</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
       </c>
       <c r="D192" s="1">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1">
         <v>3844080626</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
-      </c>
-      <c r="C193" t="s">
-        <v>21</v>
+        <v>195</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
       </c>
       <c r="D193" s="1">
-        <v>0</v>
-      </c>
-      <c r="E193" s="1">
         <v>290194195</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
-      </c>
-      <c r="C194" t="s">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
       </c>
       <c r="D194" s="1">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1">
         <v>89688700000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
-      </c>
-      <c r="C195" t="s">
-        <v>21</v>
+        <v>197</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
       </c>
       <c r="D195" s="1">
-        <v>0</v>
-      </c>
-      <c r="E195" s="1">
         <v>5417934152</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
+        <v>198</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
       </c>
       <c r="D196" s="1">
-        <v>0</v>
-      </c>
-      <c r="E196" s="1">
         <v>13397100000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6</v>
+        <v>199</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
       </c>
       <c r="D197" s="1">
-        <v>0</v>
-      </c>
-      <c r="E197" s="1">
         <v>2282927882</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
       </c>
       <c r="D198" s="1">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1">
         <v>16788601831</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
-      </c>
-      <c r="C199" t="s">
-        <v>11</v>
+        <v>201</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
       </c>
       <c r="D199" s="1">
-        <v>0</v>
-      </c>
-      <c r="E199" s="1">
         <v>6714465857</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
-      </c>
-      <c r="C200" t="s">
-        <v>8</v>
+        <v>202</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
       </c>
       <c r="D200" s="1">
-        <v>0</v>
-      </c>
-      <c r="E200" s="1">
         <v>50457653265</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
-      </c>
-      <c r="C201" t="s">
-        <v>11</v>
+        <v>203</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
       </c>
       <c r="D201" s="1">
-        <v>0</v>
-      </c>
-      <c r="E201" s="1">
         <v>6193677543</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
-      </c>
-      <c r="C202" t="s">
-        <v>11</v>
+        <v>204</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
       </c>
       <c r="D202" s="1">
-        <v>0</v>
-      </c>
-      <c r="E202" s="1">
         <v>6468000877</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
-      </c>
-      <c r="C203" t="s">
-        <v>6</v>
+        <v>205</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
       </c>
       <c r="D203" s="1">
-        <v>0</v>
-      </c>
-      <c r="E203" s="1">
         <v>62051375</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
-      </c>
-      <c r="C204" t="s">
-        <v>6</v>
+        <v>206</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
       </c>
       <c r="D204" s="1">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1">
         <v>3121449966</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" t="s">
-        <v>6</v>
+        <v>207</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
       </c>
       <c r="D205" s="1">
-        <v>0</v>
-      </c>
-      <c r="E205" s="1">
         <v>1072067039</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
-      </c>
-      <c r="C206" t="s">
-        <v>21</v>
+        <v>208</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
       </c>
       <c r="D206" s="1">
-        <v>0</v>
-      </c>
-      <c r="E206" s="1">
         <v>9445714851</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
-      </c>
-      <c r="C207" t="s">
-        <v>8</v>
+        <v>209</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
       </c>
       <c r="D207" s="1">
-        <v>0</v>
-      </c>
-      <c r="E207" s="1">
         <v>282506007859</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
-      </c>
-      <c r="C208" t="s">
-        <v>6</v>
+        <v>210</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
       </c>
       <c r="D208" s="1">
-        <v>0</v>
-      </c>
-      <c r="E208" s="1">
         <v>337520470</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C209" t="s">
-        <v>36</v>
+        <v>211</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
       </c>
       <c r="D209" s="1">
-        <v>0</v>
-      </c>
-      <c r="E209" s="1">
         <v>82887395895</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
-      </c>
-      <c r="C210" t="s">
-        <v>8</v>
+        <v>212</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
       </c>
       <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
         <v>22163075121</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
-      </c>
-      <c r="C211" t="s">
-        <v>36</v>
+        <v>213</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
       </c>
       <c r="D211" s="1">
-        <v>0</v>
-      </c>
-      <c r="E211" s="1">
         <v>41703561397</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
+        <v>214</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
-      </c>
-      <c r="E212" s="1">
         <v>917550492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
-      </c>
-      <c r="C213" t="s">
-        <v>11</v>
+        <v>215</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
       </c>
       <c r="D213" s="1">
-        <v>0</v>
-      </c>
-      <c r="E213" s="1">
         <v>93270354852</v>
       </c>
     </row>
